--- a/biology/Zoologie/Horus_asper/Horus_asper.xlsx
+++ b/biology/Zoologie/Horus_asper/Horus_asper.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Modèle:Ébaucheee
 Horus asper est une espèce de pseudoscorpions de la famille des Olpiidae.
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Afrique du Sud et en Namibie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Afrique du Sud et en Namibie.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 2,3 à 2,5 mm et les femelles de 2,5 à 2,7 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 2,3 à 2,5 mm et les femelles de 2,5 à 2,7 mm.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Beier, 1947 : Zur Kenntnis der Pseudoscorpionidenfauna des südlichen Afrika, insbesondere der südwest- und südafrikanischen Trockengebiete. Eos, Madrid, vol. 23, p. 285-339 (texte intégral).</t>
         </is>
